--- a/office/data.xlsx
+++ b/office/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limeng\Desktop\生成数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace1\py_tools\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F7FECF-3458-4E7D-9345-0CFE4D2980FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6E30D6-89C4-4E0C-A825-A61DFE219D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
+    <workbookView xWindow="2790" yWindow="4200" windowWidth="23025" windowHeight="11385" xr2:uid="{6BFDA7AB-7DD4-4831-91D9-AD345401B375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>送 检 单 位</t>
   </si>
@@ -71,13 +71,41 @@
   </si>
   <si>
     <t>采集人</t>
+  </si>
+  <si>
+    <t>外包装</t>
+  </si>
+  <si>
+    <t>江苏国泰华博进出口有限公司</t>
+  </si>
+  <si>
+    <t>TH0001551</t>
+  </si>
+  <si>
+    <t>SWIFT ARGENTINA S A.</t>
+  </si>
+  <si>
+    <t>冷冻去骨牛板腱</t>
+  </si>
+  <si>
+    <t>2020.09.14-2020.10.09</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>CRLU1276709</t>
+  </si>
+  <si>
+    <t>2021.1.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +138,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -178,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +230,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -514,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1835FD41-2552-482E-8EC6-245B70520F9A}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -527,20 +570,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -586,10 +628,43 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
